--- a/example_data/EPA/label_corrected/000352-00873-20161003_2018-12-07_214255.xlsx
+++ b/example_data/EPA/label_corrected/000352-00873-20161003_2018-12-07_214255.xlsx
@@ -751,7 +751,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>172_Sensitive_Areas</t>
+          <t>172_sensitive_areas</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
